--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -859,7 +859,7 @@
         <v>25850000</v>
       </c>
       <c r="M8" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>3035000</v>
@@ -1236,7 +1236,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>260000</v>
@@ -1271,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,17 +1312,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1332,7 +1332,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1342,7 +1342,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1352,7 +1352,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1362,7 +1362,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1372,7 +1372,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1382,47 +1382,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7117142.857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3035000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1432,7 +1432,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1442,7 +1442,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1452,7 +1452,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1462,7 +1462,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1472,37 +1472,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7117142.857142857</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3035000</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1512,7 +1512,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1522,7 +1522,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1532,7 +1532,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1542,7 +1542,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1552,37 +1552,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-14000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1592,17 +1592,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-2765357.142857142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1612,100 +1612,10 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-2765357.142857142</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
         <v>-2765357.142857142</v>
       </c>
     </row>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -1271,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,47 +1292,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1342,7 +1342,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1352,7 +1352,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1362,7 +1362,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1372,7 +1372,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1382,7 +1382,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1392,67 +1392,67 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7117142.857142857</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3035000</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>962500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8328571.428571428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3035000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1462,7 +1462,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1472,57 +1472,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>260000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-14000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1532,7 +1532,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1542,7 +1542,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1552,17 +1552,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1572,17 +1572,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1592,17 +1592,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2765357.142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1612,11 +1612,71 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1413928.571428571</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>-2765357.142857142</v>
+      <c r="B40" t="n">
+        <v>-1413928.571428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -1271,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,7 +1302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1312,27 +1312,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương công tác tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1342,7 +1342,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1352,7 +1352,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1362,7 +1362,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1372,7 +1372,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1382,7 +1382,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1392,67 +1392,67 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.5</v>
+        <v>962500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962500</v>
+        <v>8328571.428571428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8328571.428571428</v>
+        <v>3035000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3035000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1462,7 +1462,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1472,7 +1472,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1482,7 +1482,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1492,37 +1492,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>260000</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-14000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1532,17 +1532,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1552,17 +1552,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1572,7 +1572,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1582,7 +1582,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1592,7 +1592,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1602,7 +1602,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1612,17 +1612,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1632,17 +1632,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>-1413928.571428571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1652,30 +1652,10 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1413928.571428571</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>-1413928.571428571</v>
       </c>
     </row>
